--- a/Working Sheet.xlsx
+++ b/Working Sheet.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Inceptez-Batch13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Inceptez-Batch13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18E789-4AB3-4960-BA7A-17AF69C08CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E08E1-E04F-434E-B4B2-5821E2351369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$201</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$3:$A$13</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$C$1:$C$3</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$D$1:$D$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$3:$A$13</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
@@ -198,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -264,7 +264,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
@@ -274,7 +274,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -356,7 +356,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1565,7 +1565,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-IN" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -1643,7 +1643,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-IN" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -8982,7 +8982,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AE4043-7E70-428C-98B3-14E0202E37AD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A0CC3D-526B-4220-A39A-F51C83CF18DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
